--- a/baseline.xlsx
+++ b/baseline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\MSBD5002-MetricPrompt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A006D-E8E5-47FB-963A-8C6C0ACF0D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D06A2A5-9959-45A9-93BB-FF80D38FF2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>77.319999999999993</v>
+        <v>80.27</v>
       </c>
       <c r="C3" s="2">
         <v>82.67</v>
@@ -504,13 +504,27 @@
       <c r="F3" s="2">
         <v>89.31</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="G3" s="2">
+        <v>92.14</v>
+      </c>
+      <c r="H3" s="2">
+        <v>81.83</v>
+      </c>
+      <c r="I3" s="2">
+        <v>95.02</v>
+      </c>
+      <c r="J3" s="2">
+        <v>54.42</v>
+      </c>
+      <c r="K3" s="2">
+        <v>57.23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>59.08</v>
+      </c>
+      <c r="M3" s="2">
+        <v>61.17</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -528,14 +542,30 @@
       <c r="E4" s="2">
         <v>80.03</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="F4" s="2">
+        <v>46.8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>56.61</v>
+      </c>
+      <c r="H4" s="2">
+        <v>76.73</v>
+      </c>
+      <c r="I4" s="2">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="J4" s="2">
+        <v>30.23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>34.35</v>
+      </c>
+      <c r="L4" s="2">
+        <v>44.66</v>
+      </c>
+      <c r="M4" s="2">
+        <v>46.38</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -553,14 +583,30 @@
       <c r="E5" s="2">
         <v>79.459999999999994</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="F5" s="2">
+        <v>86.67</v>
+      </c>
+      <c r="G5" s="2">
+        <v>93.64</v>
+      </c>
+      <c r="H5" s="2">
+        <v>96.96</v>
+      </c>
+      <c r="I5" s="2">
+        <v>97.85</v>
+      </c>
+      <c r="J5" s="2">
+        <v>54.36</v>
+      </c>
+      <c r="K5" s="2">
+        <v>56.59</v>
+      </c>
+      <c r="L5" s="2">
+        <v>58.91</v>
+      </c>
+      <c r="M5" s="2">
+        <v>60.83</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -578,14 +624,30 @@
       <c r="E6" s="2">
         <v>86.12</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="F6" s="2">
+        <v>88.13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>96.12</v>
+      </c>
+      <c r="H6" s="2">
+        <v>97.59</v>
+      </c>
+      <c r="I6" s="2">
+        <v>98.21</v>
+      </c>
+      <c r="J6" s="2">
+        <v>55.43</v>
+      </c>
+      <c r="K6" s="2">
+        <v>59.07</v>
+      </c>
+      <c r="L6" s="2">
+        <v>60.93</v>
+      </c>
+      <c r="M6" s="2">
+        <v>62.47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
